--- a/grupos/5ARHV - Estadisticos 20211.xlsx
+++ b/grupos/5ARHV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="155">
   <si>
     <t>Materia</t>
   </si>
@@ -194,19 +194,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
+    <t>Camacho Juárez Sergio Eduardo</t>
+  </si>
+  <si>
+    <t>Domínguez Burgos Marioscar</t>
+  </si>
+  <si>
     <t>Duran Amezcua María Angélica</t>
-  </si>
-  <si>
-    <t>Domínguez Burgos Marioscar</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
-    <t>Polanco Domínguez Rosa María</t>
-  </si>
-  <si>
-    <t>Camacho Juárez Sergio Eduardo</t>
   </si>
   <si>
     <t>Pesce Bautista Victor Manuel</t>
@@ -971,10 +971,10 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -1025,10 +1025,10 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V4">
         <v>-1</v>
@@ -1048,10 +1048,10 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -1102,10 +1102,10 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V5">
         <v>-1</v>
@@ -1114,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y5">
         <v>10</v>
@@ -1202,10 +1202,10 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1256,10 +1256,10 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V7">
         <v>-1</v>
@@ -1279,10 +1279,10 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -1333,10 +1333,10 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V8">
         <v>-1</v>
@@ -1356,10 +1356,10 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -1410,10 +1410,10 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V9">
         <v>-1</v>
@@ -1433,10 +1433,10 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -1487,10 +1487,10 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V10">
         <v>-1</v>
@@ -1510,10 +1510,10 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>-1</v>
@@ -1564,10 +1564,10 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V11">
         <v>-1</v>
@@ -1587,7 +1587,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -1641,7 +1641,7 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U12">
         <v>-1</v>
@@ -1664,10 +1664,10 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -1718,10 +1718,10 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V13">
         <v>-1</v>
@@ -1741,7 +1741,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -1795,7 +1795,7 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U14">
         <v>-1</v>
@@ -1818,7 +1818,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -1872,7 +1872,7 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U15">
         <v>-1</v>
@@ -1895,10 +1895,10 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -1907,7 +1907,7 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -1949,10 +1949,10 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V16">
         <v>-1</v>
@@ -1961,7 +1961,7 @@
         <v>8</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y16">
         <v>10</v>
@@ -1972,10 +1972,10 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -2026,10 +2026,10 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V17">
         <v>-1</v>
@@ -2049,10 +2049,10 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>-1</v>
@@ -2103,10 +2103,10 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V18">
         <v>-1</v>
@@ -2126,10 +2126,10 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -2180,10 +2180,10 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V19">
         <v>-1</v>
@@ -2203,10 +2203,10 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -2257,10 +2257,10 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V20">
         <v>-1</v>
@@ -2280,7 +2280,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -2334,7 +2334,7 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U21">
         <v>-1</v>
@@ -2357,10 +2357,10 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>-1</v>
@@ -2369,7 +2369,7 @@
         <v>9</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -2411,10 +2411,10 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V22">
         <v>-1</v>
@@ -2423,7 +2423,7 @@
         <v>9</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y22">
         <v>10</v>
@@ -2434,7 +2434,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -2488,7 +2488,7 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U23">
         <v>-1</v>
@@ -2511,10 +2511,10 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -2565,10 +2565,10 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V24">
         <v>-1</v>
@@ -2588,10 +2588,10 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>-1</v>
@@ -2642,10 +2642,10 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V25">
         <v>-1</v>
@@ -2665,10 +2665,10 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>-1</v>
@@ -2719,10 +2719,10 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V26">
         <v>-1</v>
@@ -2745,7 +2745,7 @@
         <v>-1</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -2799,7 +2799,7 @@
         <v>-1</v>
       </c>
       <c r="U27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V27">
         <v>-1</v>
@@ -2973,10 +2973,10 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>-1</v>
@@ -2985,7 +2985,7 @@
         <v>9</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -3027,10 +3027,10 @@
         <v>-1</v>
       </c>
       <c r="T30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V30">
         <v>-1</v>
@@ -3039,7 +3039,7 @@
         <v>9</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y30">
         <v>10</v>
@@ -3050,7 +3050,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <v>-1</v>
@@ -3077,7 +3077,7 @@
         <v>-1</v>
       </c>
       <c r="T31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3091,10 +3091,10 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -3145,10 +3145,10 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V32">
         <v>-1</v>
@@ -3168,10 +3168,10 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>-1</v>
@@ -3222,10 +3222,10 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V33">
         <v>-1</v>
@@ -3322,10 +3322,10 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>-1</v>
@@ -3376,10 +3376,10 @@
         <v>-1</v>
       </c>
       <c r="T35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V35">
         <v>-1</v>
@@ -3399,10 +3399,10 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>-1</v>
@@ -3453,10 +3453,10 @@
         <v>-1</v>
       </c>
       <c r="T36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V36">
         <v>-1</v>
@@ -3476,10 +3476,10 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>-1</v>
@@ -3530,10 +3530,10 @@
         <v>-1</v>
       </c>
       <c r="T37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V37">
         <v>-1</v>
@@ -3594,10 +3594,10 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>-1</v>
@@ -3648,10 +3648,10 @@
         <v>-1</v>
       </c>
       <c r="T39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V39">
         <v>-1</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -3828,121 +3828,130 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>10.81</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
       <c r="I3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>89.19</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>64.86</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
       <c r="I4">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>35.14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.86</v>
+      </c>
+      <c r="H5">
+        <v>7.9</v>
       </c>
       <c r="I5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>64.86</v>
+        <v>72.22</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>35.14</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4051,7 +4060,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4071,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4091,7 +4100,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4111,7 +4120,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4131,7 +4140,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4171,7 +4180,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4191,7 +4200,7 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4211,7 +4220,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4231,7 +4240,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4251,7 +4260,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4291,7 +4300,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4311,7 +4320,7 @@
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4331,7 +4340,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4351,7 +4360,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4371,7 +4380,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4411,7 +4420,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4431,7 +4440,7 @@
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4451,7 +4460,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4471,7 +4480,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4491,7 +4500,7 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4531,7 +4540,7 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4551,7 +4560,7 @@
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4571,7 +4580,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4591,7 +4600,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4611,7 +4620,7 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4651,7 +4660,7 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4671,7 +4680,7 @@
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4691,7 +4700,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4711,7 +4720,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4731,7 +4740,7 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4771,7 +4780,7 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4791,7 +4800,7 @@
         <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4811,7 +4820,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4831,7 +4840,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4851,7 +4860,7 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4891,7 +4900,7 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4911,7 +4920,7 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4931,7 +4940,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4951,7 +4960,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4971,7 +4980,7 @@
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5011,7 +5020,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5031,7 +5040,7 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5051,7 +5060,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5071,7 +5080,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5091,7 +5100,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5131,7 +5140,7 @@
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5151,7 +5160,7 @@
         <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5171,7 +5180,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5191,7 +5200,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5211,7 +5220,7 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5251,7 +5260,7 @@
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5271,7 +5280,7 @@
         <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5291,7 +5300,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5311,7 +5320,7 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5331,7 +5340,7 @@
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5371,7 +5380,7 @@
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5391,7 +5400,7 @@
         <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5411,7 +5420,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5431,7 +5440,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5451,7 +5460,7 @@
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5491,7 +5500,7 @@
         <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5511,7 +5520,7 @@
         <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5531,7 +5540,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5551,7 +5560,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5571,7 +5580,7 @@
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5611,7 +5620,7 @@
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5631,7 +5640,7 @@
         <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5651,7 +5660,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5671,7 +5680,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5691,7 +5700,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5731,7 +5740,7 @@
         <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5751,7 +5760,7 @@
         <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5771,7 +5780,7 @@
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5791,7 +5800,7 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5811,7 +5820,7 @@
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5851,7 +5860,7 @@
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5871,7 +5880,7 @@
         <v>6</v>
       </c>
       <c r="F94" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5891,7 +5900,7 @@
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5911,7 +5920,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5931,7 +5940,7 @@
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5971,7 +5980,7 @@
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5991,7 +6000,7 @@
         <v>6</v>
       </c>
       <c r="F100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6011,7 +6020,7 @@
         <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6031,7 +6040,7 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6051,7 +6060,7 @@
         <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6091,7 +6100,7 @@
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6111,7 +6120,7 @@
         <v>6</v>
       </c>
       <c r="F106" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6131,7 +6140,7 @@
         <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6151,7 +6160,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6171,7 +6180,7 @@
         <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6211,7 +6220,7 @@
         <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6231,7 +6240,7 @@
         <v>6</v>
       </c>
       <c r="F112" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6251,7 +6260,7 @@
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6271,7 +6280,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6291,7 +6300,7 @@
         <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6331,7 +6340,7 @@
         <v>5</v>
       </c>
       <c r="F117" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6351,7 +6360,7 @@
         <v>6</v>
       </c>
       <c r="F118" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6371,7 +6380,7 @@
         <v>7</v>
       </c>
       <c r="F119" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6391,7 +6400,7 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6411,7 +6420,7 @@
         <v>9</v>
       </c>
       <c r="F121" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6451,7 +6460,7 @@
         <v>5</v>
       </c>
       <c r="F123" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6471,7 +6480,7 @@
         <v>6</v>
       </c>
       <c r="F124" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6491,7 +6500,7 @@
         <v>7</v>
       </c>
       <c r="F125" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6511,7 +6520,7 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6531,7 +6540,7 @@
         <v>9</v>
       </c>
       <c r="F127" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6571,7 +6580,7 @@
         <v>5</v>
       </c>
       <c r="F129" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6591,7 +6600,7 @@
         <v>6</v>
       </c>
       <c r="F130" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6611,7 +6620,7 @@
         <v>7</v>
       </c>
       <c r="F131" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6631,7 +6640,7 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6651,7 +6660,7 @@
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6691,7 +6700,7 @@
         <v>5</v>
       </c>
       <c r="F135" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6711,7 +6720,7 @@
         <v>6</v>
       </c>
       <c r="F136" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6731,7 +6740,7 @@
         <v>7</v>
       </c>
       <c r="F137" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6751,7 +6760,7 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6771,7 +6780,7 @@
         <v>9</v>
       </c>
       <c r="F139" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6811,7 +6820,7 @@
         <v>5</v>
       </c>
       <c r="F141" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6831,7 +6840,7 @@
         <v>6</v>
       </c>
       <c r="F142" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6851,7 +6860,7 @@
         <v>7</v>
       </c>
       <c r="F143" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6871,7 +6880,7 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6891,7 +6900,7 @@
         <v>9</v>
       </c>
       <c r="F145" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -6931,7 +6940,7 @@
         <v>5</v>
       </c>
       <c r="F147" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6951,7 +6960,7 @@
         <v>6</v>
       </c>
       <c r="F148" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6971,7 +6980,7 @@
         <v>7</v>
       </c>
       <c r="F149" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6991,7 +7000,7 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -7011,7 +7020,7 @@
         <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -7051,7 +7060,7 @@
         <v>5</v>
       </c>
       <c r="F153" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -7071,7 +7080,7 @@
         <v>6</v>
       </c>
       <c r="F154" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7091,7 +7100,7 @@
         <v>7</v>
       </c>
       <c r="F155" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7111,7 +7120,7 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7131,7 +7140,7 @@
         <v>9</v>
       </c>
       <c r="F157" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7151,7 +7160,7 @@
         <v>5</v>
       </c>
       <c r="F158" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7171,7 +7180,7 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7191,7 +7200,7 @@
         <v>9</v>
       </c>
       <c r="F160" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7231,7 +7240,7 @@
         <v>5</v>
       </c>
       <c r="F162" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7251,7 +7260,7 @@
         <v>6</v>
       </c>
       <c r="F163" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7271,7 +7280,7 @@
         <v>7</v>
       </c>
       <c r="F164" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7291,7 +7300,7 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7311,7 +7320,7 @@
         <v>9</v>
       </c>
       <c r="F166" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7351,7 +7360,7 @@
         <v>5</v>
       </c>
       <c r="F168" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7371,7 +7380,7 @@
         <v>6</v>
       </c>
       <c r="F169" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7391,7 +7400,7 @@
         <v>7</v>
       </c>
       <c r="F170" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7411,7 +7420,7 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7431,7 +7440,7 @@
         <v>9</v>
       </c>
       <c r="F172" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7471,7 +7480,7 @@
         <v>5</v>
       </c>
       <c r="F174" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7491,7 +7500,7 @@
         <v>6</v>
       </c>
       <c r="F175" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7511,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="F176" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7531,7 +7540,7 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7551,7 +7560,7 @@
         <v>9</v>
       </c>
       <c r="F178" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7591,7 +7600,7 @@
         <v>5</v>
       </c>
       <c r="F180" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7611,7 +7620,7 @@
         <v>6</v>
       </c>
       <c r="F181" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7631,7 +7640,7 @@
         <v>7</v>
       </c>
       <c r="F182" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7651,7 +7660,7 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7671,7 +7680,7 @@
         <v>9</v>
       </c>
       <c r="F184" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7711,7 +7720,7 @@
         <v>5</v>
       </c>
       <c r="F186" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7731,7 +7740,7 @@
         <v>6</v>
       </c>
       <c r="F187" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7751,7 +7760,7 @@
         <v>7</v>
       </c>
       <c r="F188" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7771,7 +7780,7 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7791,7 +7800,7 @@
         <v>9</v>
       </c>
       <c r="F190" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7831,7 +7840,7 @@
         <v>5</v>
       </c>
       <c r="F192" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7851,7 +7860,7 @@
         <v>6</v>
       </c>
       <c r="F193" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7871,7 +7880,7 @@
         <v>7</v>
       </c>
       <c r="F194" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -7891,7 +7900,7 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7911,7 +7920,7 @@
         <v>9</v>
       </c>
       <c r="F196" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -7951,7 +7960,7 @@
         <v>5</v>
       </c>
       <c r="F198" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -7971,7 +7980,7 @@
         <v>6</v>
       </c>
       <c r="F199" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -7991,7 +8000,7 @@
         <v>7</v>
       </c>
       <c r="F200" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8011,7 +8020,7 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8031,7 +8040,7 @@
         <v>9</v>
       </c>
       <c r="F202" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8051,7 +8060,7 @@
         <v>7</v>
       </c>
       <c r="F203" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8071,7 +8080,7 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8091,7 +8100,7 @@
         <v>9</v>
       </c>
       <c r="F205" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8131,7 +8140,7 @@
         <v>5</v>
       </c>
       <c r="F207" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8151,7 +8160,7 @@
         <v>6</v>
       </c>
       <c r="F208" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8171,7 +8180,7 @@
         <v>7</v>
       </c>
       <c r="F209" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8191,7 +8200,7 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8211,7 +8220,7 @@
         <v>9</v>
       </c>
       <c r="F211" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8251,7 +8260,7 @@
         <v>5</v>
       </c>
       <c r="F213" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8271,7 +8280,7 @@
         <v>6</v>
       </c>
       <c r="F214" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8291,7 +8300,7 @@
         <v>7</v>
       </c>
       <c r="F215" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -8311,7 +8320,7 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8331,7 +8340,7 @@
         <v>9</v>
       </c>
       <c r="F217" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -9004,7 +9013,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9037,6 +9046,834 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920456</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920362</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920362</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920365</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920365</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920368</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920368</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920097</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330051920097</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920372</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920372</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920373</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920373</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920374</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920374</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920378</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920378</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920381</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920381</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920382</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920382</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>18330051920108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>18330051920108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>19330051920391</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>19330051920391</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>19330051920394</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>19330051920394</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>19330051920434</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>19330051920434</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>19330051920396</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>19330051920396</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>19330051920359</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>19330051920371</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>19330051920376</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>19330051920389</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/5ARHV - Estadisticos 20211.xlsx
+++ b/grupos/5ARHV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="155">
   <si>
     <t>Materia</t>
   </si>
@@ -194,21 +194,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
+    <t>Camacho Juárez Sergio Eduardo</t>
+  </si>
+  <si>
+    <t>Domínguez Burgos Marioscar</t>
+  </si>
+  <si>
+    <t>Duran Amezcua María Angélica</t>
+  </si>
+  <si>
     <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
-    <t>Polanco Domínguez Rosa María</t>
-  </si>
-  <si>
-    <t>Camacho Juárez Sergio Eduardo</t>
-  </si>
-  <si>
-    <t>Domínguez Burgos Marioscar</t>
-  </si>
-  <si>
-    <t>Duran Amezcua María Angélica</t>
-  </si>
-  <si>
     <t>Pesce Bautista Victor Manuel</t>
   </si>
   <si>
@@ -230,135 +230,195 @@
     <t>BRETON</t>
   </si>
   <si>
+    <t>DEL CARMEN</t>
+  </si>
+  <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>VALDES</t>
+  </si>
+  <si>
+    <t>ZARATE</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>VICENTE</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>AQUINO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>CORDOBA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>MARIN</t>
+  </si>
+  <si>
+    <t>VERGEL</t>
+  </si>
+  <si>
+    <t>EVELYN AISHA</t>
+  </si>
+  <si>
+    <t>AMYRA NAHOMY</t>
+  </si>
+  <si>
+    <t>NAOMI</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>ZURI SADAY</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>LUIS HUGO</t>
+  </si>
+  <si>
+    <t>DIANA LAURA</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER</t>
+  </si>
+  <si>
+    <t>ASTRID</t>
+  </si>
+  <si>
+    <t>ITZEL ISABEL</t>
+  </si>
+  <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>BRENDA ELENA</t>
+  </si>
+  <si>
+    <t>PAULINA</t>
+  </si>
+  <si>
     <t>BRISEÑO</t>
   </si>
   <si>
     <t>CALIHUA</t>
   </si>
   <si>
-    <t>DEL CARMEN</t>
-  </si>
-  <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
     <t>CONTRERAS</t>
   </si>
   <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
     <t>DONJUAN</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
     <t>MAZAHUA</t>
   </si>
   <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
     <t>QUIAHUA</t>
   </si>
   <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
     <t>RIOS</t>
   </si>
   <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
     <t>ROMERO</t>
   </si>
   <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>VALDES</t>
-  </si>
-  <si>
     <t>VERA</t>
   </si>
   <si>
-    <t>ZARATE</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>VICENTE</t>
-  </si>
-  <si>
     <t>SUSUNAGA</t>
   </si>
   <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
     <t>MELCHOR</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
     <t>DIAZ</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
     <t>AGUILA</t>
   </si>
   <si>
     <t>CORTES</t>
   </si>
   <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>AQUINO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>CORDOBA</t>
-  </si>
-  <si>
     <t>TZITZIHUA</t>
   </si>
   <si>
@@ -371,45 +431,18 @@
     <t>HERRERA</t>
   </si>
   <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>MARIN</t>
-  </si>
-  <si>
-    <t>VERGEL</t>
-  </si>
-  <si>
     <t>AURORA</t>
   </si>
   <si>
-    <t>EVELYN AISHA</t>
-  </si>
-  <si>
-    <t>AMYRA NAHOMY</t>
-  </si>
-  <si>
     <t>VANESSA</t>
   </si>
   <si>
     <t>JOEL</t>
   </si>
   <si>
-    <t>NAOMI</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
     <t>OFELIA</t>
   </si>
   <si>
-    <t>ZURI SADAY</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
     <t>RAUL ANTONIO</t>
   </si>
   <si>
@@ -419,18 +452,12 @@
     <t>GISELA</t>
   </si>
   <si>
-    <t>MARIA GUADALUPE</t>
-  </si>
-  <si>
     <t>JESUS</t>
   </si>
   <si>
     <t>JOSE DANIEL</t>
   </si>
   <si>
-    <t>PERLA</t>
-  </si>
-  <si>
     <t>DARIANA MONSERRAT</t>
   </si>
   <si>
@@ -440,30 +467,12 @@
     <t>LUCERO</t>
   </si>
   <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>LUIS HUGO</t>
-  </si>
-  <si>
-    <t>DIANA LAURA</t>
-  </si>
-  <si>
     <t>GUADALUPE</t>
   </si>
   <si>
-    <t>FRANCISCO JAVIER</t>
-  </si>
-  <si>
-    <t>ASTRID</t>
-  </si>
-  <si>
     <t>NOE</t>
   </si>
   <si>
-    <t>ITZEL ISABEL</t>
-  </si>
-  <si>
     <t>MERIELING YAMILETH</t>
   </si>
   <si>
@@ -473,16 +482,7 @@
     <t>ELIZABETH</t>
   </si>
   <si>
-    <t>JENNIFER</t>
-  </si>
-  <si>
-    <t>BRENDA ELENA</t>
-  </si>
-  <si>
     <t>VALERIA</t>
-  </si>
-  <si>
-    <t>PAULINA</t>
   </si>
 </sst>
 </file>
@@ -983,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -1037,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y4">
         <v>-1</v>
@@ -1054,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -1108,7 +1108,7 @@
         <v>9</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W5">
         <v>8</v>
@@ -1131,10 +1131,10 @@
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>-1</v>
@@ -1185,10 +1185,10 @@
         <v>-1</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1208,13 +1208,13 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>9</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1262,13 +1262,13 @@
         <v>6</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W7">
         <v>9</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y7">
         <v>6</v>
@@ -1285,13 +1285,13 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>9</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1339,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W8">
         <v>9</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y8">
         <v>10</v>
@@ -1368,7 +1368,7 @@
         <v>-1</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -1422,7 +1422,7 @@
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1439,13 +1439,13 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -1493,13 +1493,13 @@
         <v>9</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W10">
         <v>9</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y10">
         <v>10</v>
@@ -1516,13 +1516,13 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -1570,13 +1570,13 @@
         <v>7</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W11">
         <v>8</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1599,7 +1599,7 @@
         <v>-1</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -1653,7 +1653,7 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1670,13 +1670,13 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>9</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>9</v>
@@ -1724,13 +1724,13 @@
         <v>10</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W13">
         <v>9</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y13">
         <v>9</v>
@@ -1747,13 +1747,13 @@
         <v>-1</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>9</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -1801,13 +1801,13 @@
         <v>-1</v>
       </c>
       <c r="V14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W14">
         <v>9</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y14">
         <v>9</v>
@@ -1824,13 +1824,13 @@
         <v>-1</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>9</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -1878,13 +1878,13 @@
         <v>-1</v>
       </c>
       <c r="V15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W15">
         <v>9</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y15">
         <v>9</v>
@@ -1901,7 +1901,7 @@
         <v>9</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -1955,7 +1955,7 @@
         <v>9</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W16">
         <v>8</v>
@@ -1978,13 +1978,13 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>8</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <v>9</v>
@@ -2032,13 +2032,13 @@
         <v>8</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W17">
         <v>8</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y17">
         <v>9</v>
@@ -2055,13 +2055,13 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>9</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -2109,13 +2109,13 @@
         <v>8</v>
       </c>
       <c r="V18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W18">
         <v>9</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y18">
         <v>10</v>
@@ -2132,13 +2132,13 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>9</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -2186,13 +2186,13 @@
         <v>7</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W19">
         <v>9</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y19">
         <v>10</v>
@@ -2209,13 +2209,13 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>8</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>8</v>
@@ -2263,13 +2263,13 @@
         <v>8</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W20">
         <v>8</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y20">
         <v>8</v>
@@ -2286,13 +2286,13 @@
         <v>-1</v>
       </c>
       <c r="D21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>9</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G21">
         <v>8</v>
@@ -2340,13 +2340,13 @@
         <v>-1</v>
       </c>
       <c r="V21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W21">
         <v>9</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y21">
         <v>8</v>
@@ -2363,7 +2363,7 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>9</v>
@@ -2417,7 +2417,7 @@
         <v>8</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W22">
         <v>9</v>
@@ -2440,13 +2440,13 @@
         <v>-1</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>9</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G23">
         <v>8</v>
@@ -2494,13 +2494,13 @@
         <v>-1</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W23">
         <v>9</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y23">
         <v>8</v>
@@ -2517,13 +2517,13 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>9</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>8</v>
@@ -2571,13 +2571,13 @@
         <v>9</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W24">
         <v>9</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y24">
         <v>8</v>
@@ -2594,13 +2594,13 @@
         <v>10</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -2648,13 +2648,13 @@
         <v>10</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W25">
         <v>9</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y25">
         <v>10</v>
@@ -2671,13 +2671,13 @@
         <v>9</v>
       </c>
       <c r="D26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>9</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -2725,13 +2725,13 @@
         <v>9</v>
       </c>
       <c r="V26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W26">
         <v>9</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y26">
         <v>10</v>
@@ -2754,7 +2754,7 @@
         <v>-1</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -2808,7 +2808,7 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y27">
         <v>-1</v>
@@ -2979,7 +2979,7 @@
         <v>10</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>9</v>
@@ -3033,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="W30">
         <v>9</v>
@@ -3053,7 +3053,7 @@
         <v>7</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>-1</v>
@@ -3080,7 +3080,7 @@
         <v>7</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y31">
         <v>-1</v>
@@ -3103,7 +3103,7 @@
         <v>8</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <v>-1</v>
@@ -3157,7 +3157,7 @@
         <v>8</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y32">
         <v>-1</v>
@@ -3174,13 +3174,13 @@
         <v>9</v>
       </c>
       <c r="D33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E33">
         <v>9</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -3228,13 +3228,13 @@
         <v>9</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W33">
         <v>9</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y33">
         <v>10</v>
@@ -3257,7 +3257,7 @@
         <v>-1</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G34">
         <v>-1</v>
@@ -3311,7 +3311,7 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -3328,13 +3328,13 @@
         <v>6</v>
       </c>
       <c r="D35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>8</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -3382,13 +3382,13 @@
         <v>6</v>
       </c>
       <c r="V35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W35">
         <v>8</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y35">
         <v>6</v>
@@ -3405,13 +3405,13 @@
         <v>9</v>
       </c>
       <c r="D36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>8</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -3459,13 +3459,13 @@
         <v>9</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W36">
         <v>8</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y36">
         <v>10</v>
@@ -3482,13 +3482,13 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>9</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G37">
         <v>7</v>
@@ -3536,13 +3536,13 @@
         <v>6</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W37">
         <v>9</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y37">
         <v>7</v>
@@ -3556,7 +3556,7 @@
         <v>-1</v>
       </c>
       <c r="F38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G38">
         <v>-1</v>
@@ -3583,7 +3583,7 @@
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y38">
         <v>-1</v>
@@ -3600,13 +3600,13 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E39">
         <v>8</v>
       </c>
       <c r="F39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <v>9</v>
@@ -3654,13 +3654,13 @@
         <v>6</v>
       </c>
       <c r="V39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W39">
         <v>8</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y39">
         <v>9</v>
@@ -3799,36 +3799,39 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>62.16</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>27.03</v>
+      </c>
+      <c r="H2">
+        <v>6.9</v>
       </c>
       <c r="I2">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -3837,94 +3840,94 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>10.81</v>
+        <v>64.86</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>89.19</v>
+        <v>35.14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>64.86</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>35.14</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>68.56999999999999</v>
+        <v>72.22</v>
       </c>
       <c r="G5">
-        <v>2.86</v>
+        <v>11.11</v>
       </c>
       <c r="H5">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>28.57</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
@@ -3936,22 +3939,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>72.22</v>
       </c>
       <c r="G6">
-        <v>11.11</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>16.67</v>
+        <v>27.78</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3965,13 +3968,13 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>77.14</v>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3980,10 +3983,10 @@
         <v>8.6</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>22.86</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3993,7 +3996,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4025,59 +4028,59 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920359</v>
+        <v>19330051920358</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920359</v>
+        <v>19330051920358</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920359</v>
+        <v>19330051920360</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -4085,179 +4088,179 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920359</v>
+        <v>19330051920360</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920359</v>
+        <v>19330051920360</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920359</v>
+        <v>19330051920360</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920358</v>
+        <v>19330051920426</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920358</v>
+        <v>19330051920366</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920358</v>
+        <v>19330051920367</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920358</v>
+        <v>19330051920367</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920358</v>
+        <v>19330051920367</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920358</v>
+        <v>19330051920367</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>59</v>
@@ -4265,16 +4268,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920360</v>
+        <v>19330051920435</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -4285,19 +4288,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920360</v>
+        <v>19330051920435</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
         <v>62</v>
@@ -4305,59 +4308,59 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920360</v>
+        <v>19330051920435</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920360</v>
+        <v>19330051920375</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920360</v>
+        <v>19330051920377</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
         <v>60</v>
@@ -4365,59 +4368,59 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920360</v>
+        <v>19330051920383</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920456</v>
+        <v>19330051920383</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920456</v>
+        <v>19330051920383</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
         <v>62</v>
@@ -4425,319 +4428,319 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920456</v>
+        <v>19330051920383</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920456</v>
+        <v>19330051920386</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920456</v>
+        <v>19330051920386</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920456</v>
+        <v>19330051920386</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920362</v>
+        <v>19330051920386</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920362</v>
+        <v>19330051920386</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920362</v>
+        <v>19330051920386</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920362</v>
+        <v>19330051920419</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920362</v>
+        <v>19330051920419</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920362</v>
+        <v>19330051920419</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920426</v>
+        <v>19330051920419</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920426</v>
+        <v>19330051920419</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920426</v>
+        <v>19330051920419</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920426</v>
+        <v>18330051920108</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920426</v>
+        <v>19330051920436</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920426</v>
+        <v>19330051920436</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
         <v>59</v>
@@ -4745,16 +4748,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920366</v>
+        <v>19330051920393</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -4765,199 +4768,199 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920366</v>
+        <v>19330051920393</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920366</v>
+        <v>19330051920393</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920366</v>
+        <v>19330051920393</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920366</v>
+        <v>19330051920393</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920366</v>
+        <v>19330051920369</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920365</v>
+        <v>18330051920188</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920365</v>
+        <v>18330051920188</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920365</v>
+        <v>19330051920399</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920365</v>
+        <v>19330051920399</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920365</v>
+        <v>19330051920399</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
         <v>60</v>
@@ -4965,3382 +4968,62 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920365</v>
+        <v>19330051920399</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920368</v>
+        <v>19330051920399</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920368</v>
+        <v>19330051920399</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>19330051920368</v>
-      </c>
-      <c r="B52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>19330051920368</v>
-      </c>
-      <c r="B53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>19330051920368</v>
-      </c>
-      <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" t="s">
-        <v>127</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>19330051920368</v>
-      </c>
-      <c r="B55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>19330051920367</v>
-      </c>
-      <c r="B56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>19330051920367</v>
-      </c>
-      <c r="B57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>19330051920367</v>
-      </c>
-      <c r="B58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>19330051920367</v>
-      </c>
-      <c r="B59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>19330051920367</v>
-      </c>
-      <c r="B60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>19330051920367</v>
-      </c>
-      <c r="B61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>19330051920435</v>
-      </c>
-      <c r="B62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" t="s">
-        <v>102</v>
-      </c>
-      <c r="D62" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>19330051920435</v>
-      </c>
-      <c r="B63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>19330051920435</v>
-      </c>
-      <c r="B64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>19330051920435</v>
-      </c>
-      <c r="B65" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>19330051920435</v>
-      </c>
-      <c r="B66" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>19330051920435</v>
-      </c>
-      <c r="B67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>19330051920371</v>
-      </c>
-      <c r="B68" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" t="s">
-        <v>130</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>19330051920371</v>
-      </c>
-      <c r="B69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" t="s">
-        <v>130</v>
-      </c>
-      <c r="E69" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19330051920371</v>
-      </c>
-      <c r="B70" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" t="s">
-        <v>130</v>
-      </c>
-      <c r="E70" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920371</v>
-      </c>
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" t="s">
-        <v>103</v>
-      </c>
-      <c r="D71" t="s">
-        <v>130</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920371</v>
-      </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D72" t="s">
-        <v>130</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920371</v>
-      </c>
-      <c r="B73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" t="s">
-        <v>103</v>
-      </c>
-      <c r="D73" t="s">
-        <v>130</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>18330051920097</v>
-      </c>
-      <c r="B74" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" t="s">
-        <v>84</v>
-      </c>
-      <c r="D74" t="s">
-        <v>131</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>18330051920097</v>
-      </c>
-      <c r="B75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" t="s">
-        <v>131</v>
-      </c>
-      <c r="E75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>18330051920097</v>
-      </c>
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" t="s">
-        <v>131</v>
-      </c>
-      <c r="E76" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>18330051920097</v>
-      </c>
-      <c r="B77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" t="s">
-        <v>131</v>
-      </c>
-      <c r="E77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>18330051920097</v>
-      </c>
-      <c r="B78" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" t="s">
-        <v>84</v>
-      </c>
-      <c r="D78" t="s">
-        <v>131</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>18330051920097</v>
-      </c>
-      <c r="B79" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920372</v>
-      </c>
-      <c r="B80" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" t="s">
-        <v>104</v>
-      </c>
-      <c r="D80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>19330051920372</v>
-      </c>
-      <c r="B81" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" t="s">
-        <v>104</v>
-      </c>
-      <c r="D81" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>19330051920372</v>
-      </c>
-      <c r="B82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" t="s">
-        <v>104</v>
-      </c>
-      <c r="D82" t="s">
-        <v>106</v>
-      </c>
-      <c r="E82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>19330051920372</v>
-      </c>
-      <c r="B83" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" t="s">
-        <v>104</v>
-      </c>
-      <c r="D83" t="s">
-        <v>106</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>19330051920372</v>
-      </c>
-      <c r="B84" t="s">
-        <v>79</v>
-      </c>
-      <c r="C84" t="s">
-        <v>104</v>
-      </c>
-      <c r="D84" t="s">
-        <v>106</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>19330051920372</v>
-      </c>
-      <c r="B85" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" t="s">
-        <v>104</v>
-      </c>
-      <c r="D85" t="s">
-        <v>106</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>19330051920373</v>
-      </c>
-      <c r="B86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" t="s">
-        <v>105</v>
-      </c>
-      <c r="D86" t="s">
-        <v>132</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>19330051920373</v>
-      </c>
-      <c r="B87" t="s">
-        <v>80</v>
-      </c>
-      <c r="C87" t="s">
-        <v>105</v>
-      </c>
-      <c r="D87" t="s">
-        <v>132</v>
-      </c>
-      <c r="E87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>19330051920373</v>
-      </c>
-      <c r="B88" t="s">
-        <v>80</v>
-      </c>
-      <c r="C88" t="s">
-        <v>105</v>
-      </c>
-      <c r="D88" t="s">
-        <v>132</v>
-      </c>
-      <c r="E88" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>19330051920373</v>
-      </c>
-      <c r="B89" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" t="s">
-        <v>105</v>
-      </c>
-      <c r="D89" t="s">
-        <v>132</v>
-      </c>
-      <c r="E89" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>19330051920373</v>
-      </c>
-      <c r="B90" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90" t="s">
-        <v>105</v>
-      </c>
-      <c r="D90" t="s">
-        <v>132</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>19330051920373</v>
-      </c>
-      <c r="B91" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" t="s">
-        <v>105</v>
-      </c>
-      <c r="D91" t="s">
-        <v>132</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920375</v>
-      </c>
-      <c r="B92" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" t="s">
-        <v>106</v>
-      </c>
-      <c r="D92" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920375</v>
-      </c>
-      <c r="B93" t="s">
-        <v>81</v>
-      </c>
-      <c r="C93" t="s">
-        <v>106</v>
-      </c>
-      <c r="D93" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" t="s">
-        <v>5</v>
-      </c>
-      <c r="F93" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920375</v>
-      </c>
-      <c r="B94" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" t="s">
-        <v>106</v>
-      </c>
-      <c r="D94" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920375</v>
-      </c>
-      <c r="B95" t="s">
-        <v>81</v>
-      </c>
-      <c r="C95" t="s">
-        <v>106</v>
-      </c>
-      <c r="D95" t="s">
-        <v>133</v>
-      </c>
-      <c r="E95" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920375</v>
-      </c>
-      <c r="B96" t="s">
-        <v>81</v>
-      </c>
-      <c r="C96" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920375</v>
-      </c>
-      <c r="B97" t="s">
-        <v>81</v>
-      </c>
-      <c r="C97" t="s">
-        <v>106</v>
-      </c>
-      <c r="D97" t="s">
-        <v>133</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920374</v>
-      </c>
-      <c r="B98" t="s">
-        <v>81</v>
-      </c>
-      <c r="C98" t="s">
-        <v>107</v>
-      </c>
-      <c r="D98" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920374</v>
-      </c>
-      <c r="B99" t="s">
-        <v>81</v>
-      </c>
-      <c r="C99" t="s">
-        <v>107</v>
-      </c>
-      <c r="D99" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" t="s">
-        <v>5</v>
-      </c>
-      <c r="F99" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>19330051920374</v>
-      </c>
-      <c r="B100" t="s">
-        <v>81</v>
-      </c>
-      <c r="C100" t="s">
-        <v>107</v>
-      </c>
-      <c r="D100" t="s">
-        <v>134</v>
-      </c>
-      <c r="E100" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920374</v>
-      </c>
-      <c r="B101" t="s">
-        <v>81</v>
-      </c>
-      <c r="C101" t="s">
-        <v>107</v>
-      </c>
-      <c r="D101" t="s">
-        <v>134</v>
-      </c>
-      <c r="E101" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920374</v>
-      </c>
-      <c r="B102" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" t="s">
-        <v>107</v>
-      </c>
-      <c r="D102" t="s">
-        <v>134</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920374</v>
-      </c>
-      <c r="B103" t="s">
-        <v>81</v>
-      </c>
-      <c r="C103" t="s">
-        <v>107</v>
-      </c>
-      <c r="D103" t="s">
-        <v>134</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051920376</v>
-      </c>
-      <c r="B104" t="s">
-        <v>81</v>
-      </c>
-      <c r="C104" t="s">
-        <v>108</v>
-      </c>
-      <c r="D104" t="s">
-        <v>135</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051920376</v>
-      </c>
-      <c r="B105" t="s">
-        <v>81</v>
-      </c>
-      <c r="C105" t="s">
-        <v>108</v>
-      </c>
-      <c r="D105" t="s">
-        <v>135</v>
-      </c>
-      <c r="E105" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>19330051920376</v>
-      </c>
-      <c r="B106" t="s">
-        <v>81</v>
-      </c>
-      <c r="C106" t="s">
-        <v>108</v>
-      </c>
-      <c r="D106" t="s">
-        <v>135</v>
-      </c>
-      <c r="E106" t="s">
-        <v>6</v>
-      </c>
-      <c r="F106" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051920376</v>
-      </c>
-      <c r="B107" t="s">
-        <v>81</v>
-      </c>
-      <c r="C107" t="s">
-        <v>108</v>
-      </c>
-      <c r="D107" t="s">
-        <v>135</v>
-      </c>
-      <c r="E107" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051920376</v>
-      </c>
-      <c r="B108" t="s">
-        <v>81</v>
-      </c>
-      <c r="C108" t="s">
-        <v>108</v>
-      </c>
-      <c r="D108" t="s">
-        <v>135</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051920376</v>
-      </c>
-      <c r="B109" t="s">
-        <v>81</v>
-      </c>
-      <c r="C109" t="s">
-        <v>108</v>
-      </c>
-      <c r="D109" t="s">
-        <v>135</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920377</v>
-      </c>
-      <c r="B110" t="s">
-        <v>81</v>
-      </c>
-      <c r="C110" t="s">
-        <v>79</v>
-      </c>
-      <c r="D110" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920377</v>
-      </c>
-      <c r="B111" t="s">
-        <v>81</v>
-      </c>
-      <c r="C111" t="s">
-        <v>79</v>
-      </c>
-      <c r="D111" t="s">
-        <v>136</v>
-      </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>19330051920377</v>
-      </c>
-      <c r="B112" t="s">
-        <v>81</v>
-      </c>
-      <c r="C112" t="s">
-        <v>79</v>
-      </c>
-      <c r="D112" t="s">
-        <v>136</v>
-      </c>
-      <c r="E112" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>19330051920377</v>
-      </c>
-      <c r="B113" t="s">
-        <v>81</v>
-      </c>
-      <c r="C113" t="s">
-        <v>79</v>
-      </c>
-      <c r="D113" t="s">
-        <v>136</v>
-      </c>
-      <c r="E113" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>19330051920377</v>
-      </c>
-      <c r="B114" t="s">
-        <v>81</v>
-      </c>
-      <c r="C114" t="s">
-        <v>79</v>
-      </c>
-      <c r="D114" t="s">
-        <v>136</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>19330051920377</v>
-      </c>
-      <c r="B115" t="s">
-        <v>81</v>
-      </c>
-      <c r="C115" t="s">
-        <v>79</v>
-      </c>
-      <c r="D115" t="s">
-        <v>136</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>19330051920378</v>
-      </c>
-      <c r="B116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C116" t="s">
-        <v>81</v>
-      </c>
-      <c r="D116" t="s">
-        <v>137</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>19330051920378</v>
-      </c>
-      <c r="B117" t="s">
-        <v>81</v>
-      </c>
-      <c r="C117" t="s">
-        <v>81</v>
-      </c>
-      <c r="D117" t="s">
-        <v>137</v>
-      </c>
-      <c r="E117" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>19330051920378</v>
-      </c>
-      <c r="B118" t="s">
-        <v>81</v>
-      </c>
-      <c r="C118" t="s">
-        <v>81</v>
-      </c>
-      <c r="D118" t="s">
-        <v>137</v>
-      </c>
-      <c r="E118" t="s">
-        <v>6</v>
-      </c>
-      <c r="F118" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>19330051920378</v>
-      </c>
-      <c r="B119" t="s">
-        <v>81</v>
-      </c>
-      <c r="C119" t="s">
-        <v>81</v>
-      </c>
-      <c r="D119" t="s">
-        <v>137</v>
-      </c>
-      <c r="E119" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>19330051920378</v>
-      </c>
-      <c r="B120" t="s">
-        <v>81</v>
-      </c>
-      <c r="C120" t="s">
-        <v>81</v>
-      </c>
-      <c r="D120" t="s">
-        <v>137</v>
-      </c>
-      <c r="E120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920378</v>
-      </c>
-      <c r="B121" t="s">
-        <v>81</v>
-      </c>
-      <c r="C121" t="s">
-        <v>81</v>
-      </c>
-      <c r="D121" t="s">
-        <v>137</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920381</v>
-      </c>
-      <c r="B122" t="s">
-        <v>82</v>
-      </c>
-      <c r="C122" t="s">
-        <v>80</v>
-      </c>
-      <c r="D122" t="s">
-        <v>138</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920381</v>
-      </c>
-      <c r="B123" t="s">
-        <v>82</v>
-      </c>
-      <c r="C123" t="s">
-        <v>80</v>
-      </c>
-      <c r="D123" t="s">
-        <v>138</v>
-      </c>
-      <c r="E123" t="s">
-        <v>5</v>
-      </c>
-      <c r="F123" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920381</v>
-      </c>
-      <c r="B124" t="s">
-        <v>82</v>
-      </c>
-      <c r="C124" t="s">
-        <v>80</v>
-      </c>
-      <c r="D124" t="s">
-        <v>138</v>
-      </c>
-      <c r="E124" t="s">
-        <v>6</v>
-      </c>
-      <c r="F124" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920381</v>
-      </c>
-      <c r="B125" t="s">
-        <v>82</v>
-      </c>
-      <c r="C125" t="s">
-        <v>80</v>
-      </c>
-      <c r="D125" t="s">
-        <v>138</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920381</v>
-      </c>
-      <c r="B126" t="s">
-        <v>82</v>
-      </c>
-      <c r="C126" t="s">
-        <v>80</v>
-      </c>
-      <c r="D126" t="s">
-        <v>138</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920381</v>
-      </c>
-      <c r="B127" t="s">
-        <v>82</v>
-      </c>
-      <c r="C127" t="s">
-        <v>80</v>
-      </c>
-      <c r="D127" t="s">
-        <v>138</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920382</v>
-      </c>
-      <c r="B128" t="s">
-        <v>83</v>
-      </c>
-      <c r="C128" t="s">
-        <v>100</v>
-      </c>
-      <c r="D128" t="s">
-        <v>139</v>
-      </c>
-      <c r="E128" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>19330051920382</v>
-      </c>
-      <c r="B129" t="s">
-        <v>83</v>
-      </c>
-      <c r="C129" t="s">
-        <v>100</v>
-      </c>
-      <c r="D129" t="s">
-        <v>139</v>
-      </c>
-      <c r="E129" t="s">
-        <v>5</v>
-      </c>
-      <c r="F129" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>19330051920382</v>
-      </c>
-      <c r="B130" t="s">
-        <v>83</v>
-      </c>
-      <c r="C130" t="s">
-        <v>100</v>
-      </c>
-      <c r="D130" t="s">
-        <v>139</v>
-      </c>
-      <c r="E130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F130" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>19330051920382</v>
-      </c>
-      <c r="B131" t="s">
-        <v>83</v>
-      </c>
-      <c r="C131" t="s">
-        <v>100</v>
-      </c>
-      <c r="D131" t="s">
-        <v>139</v>
-      </c>
-      <c r="E131" t="s">
-        <v>7</v>
-      </c>
-      <c r="F131" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920382</v>
-      </c>
-      <c r="B132" t="s">
-        <v>83</v>
-      </c>
-      <c r="C132" t="s">
-        <v>100</v>
-      </c>
-      <c r="D132" t="s">
-        <v>139</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920382</v>
-      </c>
-      <c r="B133" t="s">
-        <v>83</v>
-      </c>
-      <c r="C133" t="s">
-        <v>100</v>
-      </c>
-      <c r="D133" t="s">
-        <v>139</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>19330051920383</v>
-      </c>
-      <c r="B134" t="s">
-        <v>84</v>
-      </c>
-      <c r="C134" t="s">
-        <v>109</v>
-      </c>
-      <c r="D134" t="s">
-        <v>140</v>
-      </c>
-      <c r="E134" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>19330051920383</v>
-      </c>
-      <c r="B135" t="s">
-        <v>84</v>
-      </c>
-      <c r="C135" t="s">
-        <v>109</v>
-      </c>
-      <c r="D135" t="s">
-        <v>140</v>
-      </c>
-      <c r="E135" t="s">
-        <v>5</v>
-      </c>
-      <c r="F135" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>19330051920383</v>
-      </c>
-      <c r="B136" t="s">
-        <v>84</v>
-      </c>
-      <c r="C136" t="s">
-        <v>109</v>
-      </c>
-      <c r="D136" t="s">
-        <v>140</v>
-      </c>
-      <c r="E136" t="s">
-        <v>6</v>
-      </c>
-      <c r="F136" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>19330051920383</v>
-      </c>
-      <c r="B137" t="s">
-        <v>84</v>
-      </c>
-      <c r="C137" t="s">
-        <v>109</v>
-      </c>
-      <c r="D137" t="s">
-        <v>140</v>
-      </c>
-      <c r="E137" t="s">
-        <v>7</v>
-      </c>
-      <c r="F137" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>19330051920383</v>
-      </c>
-      <c r="B138" t="s">
-        <v>84</v>
-      </c>
-      <c r="C138" t="s">
-        <v>109</v>
-      </c>
-      <c r="D138" t="s">
-        <v>140</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>19330051920383</v>
-      </c>
-      <c r="B139" t="s">
-        <v>84</v>
-      </c>
-      <c r="C139" t="s">
-        <v>109</v>
-      </c>
-      <c r="D139" t="s">
-        <v>140</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>19330051920386</v>
-      </c>
-      <c r="B140" t="s">
-        <v>85</v>
-      </c>
-      <c r="C140" t="s">
-        <v>110</v>
-      </c>
-      <c r="D140" t="s">
-        <v>141</v>
-      </c>
-      <c r="E140" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>19330051920386</v>
-      </c>
-      <c r="B141" t="s">
-        <v>85</v>
-      </c>
-      <c r="C141" t="s">
-        <v>110</v>
-      </c>
-      <c r="D141" t="s">
-        <v>141</v>
-      </c>
-      <c r="E141" t="s">
-        <v>5</v>
-      </c>
-      <c r="F141" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>19330051920386</v>
-      </c>
-      <c r="B142" t="s">
-        <v>85</v>
-      </c>
-      <c r="C142" t="s">
-        <v>110</v>
-      </c>
-      <c r="D142" t="s">
-        <v>141</v>
-      </c>
-      <c r="E142" t="s">
-        <v>6</v>
-      </c>
-      <c r="F142" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>19330051920386</v>
-      </c>
-      <c r="B143" t="s">
-        <v>85</v>
-      </c>
-      <c r="C143" t="s">
-        <v>110</v>
-      </c>
-      <c r="D143" t="s">
-        <v>141</v>
-      </c>
-      <c r="E143" t="s">
-        <v>7</v>
-      </c>
-      <c r="F143" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>19330051920386</v>
-      </c>
-      <c r="B144" t="s">
-        <v>85</v>
-      </c>
-      <c r="C144" t="s">
-        <v>110</v>
-      </c>
-      <c r="D144" t="s">
-        <v>141</v>
-      </c>
-      <c r="E144" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>19330051920386</v>
-      </c>
-      <c r="B145" t="s">
-        <v>85</v>
-      </c>
-      <c r="C145" t="s">
-        <v>110</v>
-      </c>
-      <c r="D145" t="s">
-        <v>141</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>19330051920419</v>
-      </c>
-      <c r="B146" t="s">
-        <v>85</v>
-      </c>
-      <c r="C146" t="s">
-        <v>111</v>
-      </c>
-      <c r="D146" t="s">
-        <v>142</v>
-      </c>
-      <c r="E146" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>19330051920419</v>
-      </c>
-      <c r="B147" t="s">
-        <v>85</v>
-      </c>
-      <c r="C147" t="s">
-        <v>111</v>
-      </c>
-      <c r="D147" t="s">
-        <v>142</v>
-      </c>
-      <c r="E147" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>19330051920419</v>
-      </c>
-      <c r="B148" t="s">
-        <v>85</v>
-      </c>
-      <c r="C148" t="s">
-        <v>111</v>
-      </c>
-      <c r="D148" t="s">
-        <v>142</v>
-      </c>
-      <c r="E148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F148" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>19330051920419</v>
-      </c>
-      <c r="B149" t="s">
-        <v>85</v>
-      </c>
-      <c r="C149" t="s">
-        <v>111</v>
-      </c>
-      <c r="D149" t="s">
-        <v>142</v>
-      </c>
-      <c r="E149" t="s">
-        <v>7</v>
-      </c>
-      <c r="F149" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>19330051920419</v>
-      </c>
-      <c r="B150" t="s">
-        <v>85</v>
-      </c>
-      <c r="C150" t="s">
-        <v>111</v>
-      </c>
-      <c r="D150" t="s">
-        <v>142</v>
-      </c>
-      <c r="E150" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>19330051920419</v>
-      </c>
-      <c r="B151" t="s">
-        <v>85</v>
-      </c>
-      <c r="C151" t="s">
-        <v>111</v>
-      </c>
-      <c r="D151" t="s">
-        <v>142</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>19330051920389</v>
-      </c>
-      <c r="B152" t="s">
-        <v>86</v>
-      </c>
-      <c r="C152" t="s">
-        <v>68</v>
-      </c>
-      <c r="D152" t="s">
-        <v>143</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>19330051920389</v>
-      </c>
-      <c r="B153" t="s">
-        <v>86</v>
-      </c>
-      <c r="C153" t="s">
-        <v>68</v>
-      </c>
-      <c r="D153" t="s">
-        <v>143</v>
-      </c>
-      <c r="E153" t="s">
-        <v>5</v>
-      </c>
-      <c r="F153" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>19330051920389</v>
-      </c>
-      <c r="B154" t="s">
-        <v>86</v>
-      </c>
-      <c r="C154" t="s">
-        <v>68</v>
-      </c>
-      <c r="D154" t="s">
-        <v>143</v>
-      </c>
-      <c r="E154" t="s">
-        <v>6</v>
-      </c>
-      <c r="F154" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>19330051920389</v>
-      </c>
-      <c r="B155" t="s">
-        <v>86</v>
-      </c>
-      <c r="C155" t="s">
-        <v>68</v>
-      </c>
-      <c r="D155" t="s">
-        <v>143</v>
-      </c>
-      <c r="E155" t="s">
-        <v>7</v>
-      </c>
-      <c r="F155" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>19330051920389</v>
-      </c>
-      <c r="B156" t="s">
-        <v>86</v>
-      </c>
-      <c r="C156" t="s">
-        <v>68</v>
-      </c>
-      <c r="D156" t="s">
-        <v>143</v>
-      </c>
-      <c r="E156" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>19330051920389</v>
-      </c>
-      <c r="B157" t="s">
-        <v>86</v>
-      </c>
-      <c r="C157" t="s">
-        <v>68</v>
-      </c>
-      <c r="D157" t="s">
-        <v>143</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>18330051920108</v>
-      </c>
-      <c r="B158" t="s">
-        <v>87</v>
-      </c>
-      <c r="C158" t="s">
-        <v>112</v>
-      </c>
-      <c r="D158" t="s">
-        <v>144</v>
-      </c>
-      <c r="E158" t="s">
-        <v>5</v>
-      </c>
-      <c r="F158" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>18330051920108</v>
-      </c>
-      <c r="B159" t="s">
-        <v>87</v>
-      </c>
-      <c r="C159" t="s">
-        <v>112</v>
-      </c>
-      <c r="D159" t="s">
-        <v>144</v>
-      </c>
-      <c r="E159" t="s">
-        <v>10</v>
-      </c>
-      <c r="F159" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>18330051920108</v>
-      </c>
-      <c r="B160" t="s">
-        <v>87</v>
-      </c>
-      <c r="C160" t="s">
-        <v>112</v>
-      </c>
-      <c r="D160" t="s">
-        <v>144</v>
-      </c>
-      <c r="E160" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>19330051920436</v>
-      </c>
-      <c r="B161" t="s">
-        <v>88</v>
-      </c>
-      <c r="C161" t="s">
-        <v>104</v>
-      </c>
-      <c r="D161" t="s">
-        <v>145</v>
-      </c>
-      <c r="E161" t="s">
-        <v>8</v>
-      </c>
-      <c r="F161" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>19330051920436</v>
-      </c>
-      <c r="B162" t="s">
-        <v>88</v>
-      </c>
-      <c r="C162" t="s">
-        <v>104</v>
-      </c>
-      <c r="D162" t="s">
-        <v>145</v>
-      </c>
-      <c r="E162" t="s">
-        <v>5</v>
-      </c>
-      <c r="F162" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>19330051920436</v>
-      </c>
-      <c r="B163" t="s">
-        <v>88</v>
-      </c>
-      <c r="C163" t="s">
-        <v>104</v>
-      </c>
-      <c r="D163" t="s">
-        <v>145</v>
-      </c>
-      <c r="E163" t="s">
-        <v>6</v>
-      </c>
-      <c r="F163" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>19330051920436</v>
-      </c>
-      <c r="B164" t="s">
-        <v>88</v>
-      </c>
-      <c r="C164" t="s">
-        <v>104</v>
-      </c>
-      <c r="D164" t="s">
-        <v>145</v>
-      </c>
-      <c r="E164" t="s">
-        <v>7</v>
-      </c>
-      <c r="F164" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>19330051920436</v>
-      </c>
-      <c r="B165" t="s">
-        <v>88</v>
-      </c>
-      <c r="C165" t="s">
-        <v>104</v>
-      </c>
-      <c r="D165" t="s">
-        <v>145</v>
-      </c>
-      <c r="E165" t="s">
-        <v>10</v>
-      </c>
-      <c r="F165" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>19330051920436</v>
-      </c>
-      <c r="B166" t="s">
-        <v>88</v>
-      </c>
-      <c r="C166" t="s">
-        <v>104</v>
-      </c>
-      <c r="D166" t="s">
-        <v>145</v>
-      </c>
-      <c r="E166" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>19330051920391</v>
-      </c>
-      <c r="B167" t="s">
-        <v>89</v>
-      </c>
-      <c r="C167" t="s">
-        <v>113</v>
-      </c>
-      <c r="D167" t="s">
-        <v>146</v>
-      </c>
-      <c r="E167" t="s">
-        <v>8</v>
-      </c>
-      <c r="F167" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>19330051920391</v>
-      </c>
-      <c r="B168" t="s">
-        <v>89</v>
-      </c>
-      <c r="C168" t="s">
-        <v>113</v>
-      </c>
-      <c r="D168" t="s">
-        <v>146</v>
-      </c>
-      <c r="E168" t="s">
-        <v>5</v>
-      </c>
-      <c r="F168" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>19330051920391</v>
-      </c>
-      <c r="B169" t="s">
-        <v>89</v>
-      </c>
-      <c r="C169" t="s">
-        <v>113</v>
-      </c>
-      <c r="D169" t="s">
-        <v>146</v>
-      </c>
-      <c r="E169" t="s">
-        <v>6</v>
-      </c>
-      <c r="F169" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>19330051920391</v>
-      </c>
-      <c r="B170" t="s">
-        <v>89</v>
-      </c>
-      <c r="C170" t="s">
-        <v>113</v>
-      </c>
-      <c r="D170" t="s">
-        <v>146</v>
-      </c>
-      <c r="E170" t="s">
-        <v>7</v>
-      </c>
-      <c r="F170" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>19330051920391</v>
-      </c>
-      <c r="B171" t="s">
-        <v>89</v>
-      </c>
-      <c r="C171" t="s">
-        <v>113</v>
-      </c>
-      <c r="D171" t="s">
-        <v>146</v>
-      </c>
-      <c r="E171" t="s">
-        <v>10</v>
-      </c>
-      <c r="F171" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>19330051920391</v>
-      </c>
-      <c r="B172" t="s">
-        <v>89</v>
-      </c>
-      <c r="C172" t="s">
-        <v>113</v>
-      </c>
-      <c r="D172" t="s">
-        <v>146</v>
-      </c>
-      <c r="E172" t="s">
-        <v>9</v>
-      </c>
-      <c r="F172" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>19330051920393</v>
-      </c>
-      <c r="B173" t="s">
-        <v>90</v>
-      </c>
-      <c r="C173" t="s">
-        <v>75</v>
-      </c>
-      <c r="D173" t="s">
-        <v>147</v>
-      </c>
-      <c r="E173" t="s">
-        <v>8</v>
-      </c>
-      <c r="F173" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>19330051920393</v>
-      </c>
-      <c r="B174" t="s">
-        <v>90</v>
-      </c>
-      <c r="C174" t="s">
-        <v>75</v>
-      </c>
-      <c r="D174" t="s">
-        <v>147</v>
-      </c>
-      <c r="E174" t="s">
-        <v>5</v>
-      </c>
-      <c r="F174" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>19330051920393</v>
-      </c>
-      <c r="B175" t="s">
-        <v>90</v>
-      </c>
-      <c r="C175" t="s">
-        <v>75</v>
-      </c>
-      <c r="D175" t="s">
-        <v>147</v>
-      </c>
-      <c r="E175" t="s">
-        <v>6</v>
-      </c>
-      <c r="F175" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>19330051920393</v>
-      </c>
-      <c r="B176" t="s">
-        <v>90</v>
-      </c>
-      <c r="C176" t="s">
-        <v>75</v>
-      </c>
-      <c r="D176" t="s">
-        <v>147</v>
-      </c>
-      <c r="E176" t="s">
-        <v>7</v>
-      </c>
-      <c r="F176" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>19330051920393</v>
-      </c>
-      <c r="B177" t="s">
-        <v>90</v>
-      </c>
-      <c r="C177" t="s">
-        <v>75</v>
-      </c>
-      <c r="D177" t="s">
-        <v>147</v>
-      </c>
-      <c r="E177" t="s">
-        <v>10</v>
-      </c>
-      <c r="F177" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>19330051920393</v>
-      </c>
-      <c r="B178" t="s">
-        <v>90</v>
-      </c>
-      <c r="C178" t="s">
-        <v>75</v>
-      </c>
-      <c r="D178" t="s">
-        <v>147</v>
-      </c>
-      <c r="E178" t="s">
-        <v>9</v>
-      </c>
-      <c r="F178" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>19330051920394</v>
-      </c>
-      <c r="B179" t="s">
-        <v>91</v>
-      </c>
-      <c r="C179" t="s">
-        <v>114</v>
-      </c>
-      <c r="D179" t="s">
-        <v>148</v>
-      </c>
-      <c r="E179" t="s">
-        <v>8</v>
-      </c>
-      <c r="F179" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>19330051920394</v>
-      </c>
-      <c r="B180" t="s">
-        <v>91</v>
-      </c>
-      <c r="C180" t="s">
-        <v>114</v>
-      </c>
-      <c r="D180" t="s">
-        <v>148</v>
-      </c>
-      <c r="E180" t="s">
-        <v>5</v>
-      </c>
-      <c r="F180" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>19330051920394</v>
-      </c>
-      <c r="B181" t="s">
-        <v>91</v>
-      </c>
-      <c r="C181" t="s">
-        <v>114</v>
-      </c>
-      <c r="D181" t="s">
-        <v>148</v>
-      </c>
-      <c r="E181" t="s">
-        <v>6</v>
-      </c>
-      <c r="F181" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>19330051920394</v>
-      </c>
-      <c r="B182" t="s">
-        <v>91</v>
-      </c>
-      <c r="C182" t="s">
-        <v>114</v>
-      </c>
-      <c r="D182" t="s">
-        <v>148</v>
-      </c>
-      <c r="E182" t="s">
-        <v>7</v>
-      </c>
-      <c r="F182" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>19330051920394</v>
-      </c>
-      <c r="B183" t="s">
-        <v>91</v>
-      </c>
-      <c r="C183" t="s">
-        <v>114</v>
-      </c>
-      <c r="D183" t="s">
-        <v>148</v>
-      </c>
-      <c r="E183" t="s">
-        <v>10</v>
-      </c>
-      <c r="F183" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>19330051920394</v>
-      </c>
-      <c r="B184" t="s">
-        <v>91</v>
-      </c>
-      <c r="C184" t="s">
-        <v>114</v>
-      </c>
-      <c r="D184" t="s">
-        <v>148</v>
-      </c>
-      <c r="E184" t="s">
-        <v>9</v>
-      </c>
-      <c r="F184" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>19330051920434</v>
-      </c>
-      <c r="B185" t="s">
-        <v>90</v>
-      </c>
-      <c r="C185" t="s">
-        <v>115</v>
-      </c>
-      <c r="D185" t="s">
-        <v>149</v>
-      </c>
-      <c r="E185" t="s">
-        <v>8</v>
-      </c>
-      <c r="F185" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>19330051920434</v>
-      </c>
-      <c r="B186" t="s">
-        <v>90</v>
-      </c>
-      <c r="C186" t="s">
-        <v>115</v>
-      </c>
-      <c r="D186" t="s">
-        <v>149</v>
-      </c>
-      <c r="E186" t="s">
-        <v>5</v>
-      </c>
-      <c r="F186" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>19330051920434</v>
-      </c>
-      <c r="B187" t="s">
-        <v>90</v>
-      </c>
-      <c r="C187" t="s">
-        <v>115</v>
-      </c>
-      <c r="D187" t="s">
-        <v>149</v>
-      </c>
-      <c r="E187" t="s">
-        <v>6</v>
-      </c>
-      <c r="F187" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>19330051920434</v>
-      </c>
-      <c r="B188" t="s">
-        <v>90</v>
-      </c>
-      <c r="C188" t="s">
-        <v>115</v>
-      </c>
-      <c r="D188" t="s">
-        <v>149</v>
-      </c>
-      <c r="E188" t="s">
-        <v>7</v>
-      </c>
-      <c r="F188" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>19330051920434</v>
-      </c>
-      <c r="B189" t="s">
-        <v>90</v>
-      </c>
-      <c r="C189" t="s">
-        <v>115</v>
-      </c>
-      <c r="D189" t="s">
-        <v>149</v>
-      </c>
-      <c r="E189" t="s">
-        <v>10</v>
-      </c>
-      <c r="F189" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>19330051920434</v>
-      </c>
-      <c r="B190" t="s">
-        <v>90</v>
-      </c>
-      <c r="C190" t="s">
-        <v>115</v>
-      </c>
-      <c r="D190" t="s">
-        <v>149</v>
-      </c>
-      <c r="E190" t="s">
-        <v>9</v>
-      </c>
-      <c r="F190" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>19330051920396</v>
-      </c>
-      <c r="B191" t="s">
-        <v>92</v>
-      </c>
-      <c r="C191" t="s">
-        <v>116</v>
-      </c>
-      <c r="D191" t="s">
-        <v>150</v>
-      </c>
-      <c r="E191" t="s">
-        <v>8</v>
-      </c>
-      <c r="F191" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>19330051920396</v>
-      </c>
-      <c r="B192" t="s">
-        <v>92</v>
-      </c>
-      <c r="C192" t="s">
-        <v>116</v>
-      </c>
-      <c r="D192" t="s">
-        <v>150</v>
-      </c>
-      <c r="E192" t="s">
-        <v>5</v>
-      </c>
-      <c r="F192" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>19330051920396</v>
-      </c>
-      <c r="B193" t="s">
-        <v>92</v>
-      </c>
-      <c r="C193" t="s">
-        <v>116</v>
-      </c>
-      <c r="D193" t="s">
-        <v>150</v>
-      </c>
-      <c r="E193" t="s">
-        <v>6</v>
-      </c>
-      <c r="F193" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>19330051920396</v>
-      </c>
-      <c r="B194" t="s">
-        <v>92</v>
-      </c>
-      <c r="C194" t="s">
-        <v>116</v>
-      </c>
-      <c r="D194" t="s">
-        <v>150</v>
-      </c>
-      <c r="E194" t="s">
-        <v>7</v>
-      </c>
-      <c r="F194" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>19330051920396</v>
-      </c>
-      <c r="B195" t="s">
-        <v>92</v>
-      </c>
-      <c r="C195" t="s">
-        <v>116</v>
-      </c>
-      <c r="D195" t="s">
-        <v>150</v>
-      </c>
-      <c r="E195" t="s">
-        <v>10</v>
-      </c>
-      <c r="F195" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>19330051920396</v>
-      </c>
-      <c r="B196" t="s">
-        <v>92</v>
-      </c>
-      <c r="C196" t="s">
-        <v>116</v>
-      </c>
-      <c r="D196" t="s">
-        <v>150</v>
-      </c>
-      <c r="E196" t="s">
-        <v>9</v>
-      </c>
-      <c r="F196" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>19330051920369</v>
-      </c>
-      <c r="B197" t="s">
-        <v>93</v>
-      </c>
-      <c r="C197" t="s">
-        <v>117</v>
-      </c>
-      <c r="D197" t="s">
-        <v>151</v>
-      </c>
-      <c r="E197" t="s">
-        <v>8</v>
-      </c>
-      <c r="F197" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>19330051920369</v>
-      </c>
-      <c r="B198" t="s">
-        <v>93</v>
-      </c>
-      <c r="C198" t="s">
-        <v>117</v>
-      </c>
-      <c r="D198" t="s">
-        <v>151</v>
-      </c>
-      <c r="E198" t="s">
-        <v>5</v>
-      </c>
-      <c r="F198" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>19330051920369</v>
-      </c>
-      <c r="B199" t="s">
-        <v>93</v>
-      </c>
-      <c r="C199" t="s">
-        <v>117</v>
-      </c>
-      <c r="D199" t="s">
-        <v>151</v>
-      </c>
-      <c r="E199" t="s">
-        <v>6</v>
-      </c>
-      <c r="F199" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>19330051920369</v>
-      </c>
-      <c r="B200" t="s">
-        <v>93</v>
-      </c>
-      <c r="C200" t="s">
-        <v>117</v>
-      </c>
-      <c r="D200" t="s">
-        <v>151</v>
-      </c>
-      <c r="E200" t="s">
-        <v>7</v>
-      </c>
-      <c r="F200" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>19330051920369</v>
-      </c>
-      <c r="B201" t="s">
-        <v>93</v>
-      </c>
-      <c r="C201" t="s">
-        <v>117</v>
-      </c>
-      <c r="D201" t="s">
-        <v>151</v>
-      </c>
-      <c r="E201" t="s">
-        <v>10</v>
-      </c>
-      <c r="F201" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>19330051920369</v>
-      </c>
-      <c r="B202" t="s">
-        <v>93</v>
-      </c>
-      <c r="C202" t="s">
-        <v>117</v>
-      </c>
-      <c r="D202" t="s">
-        <v>151</v>
-      </c>
-      <c r="E202" t="s">
-        <v>9</v>
-      </c>
-      <c r="F202" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>18330051920188</v>
-      </c>
-      <c r="B203" t="s">
-        <v>94</v>
-      </c>
-      <c r="C203" t="s">
-        <v>118</v>
-      </c>
-      <c r="D203" t="s">
-        <v>152</v>
-      </c>
-      <c r="E203" t="s">
-        <v>7</v>
-      </c>
-      <c r="F203" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>18330051920188</v>
-      </c>
-      <c r="B204" t="s">
-        <v>94</v>
-      </c>
-      <c r="C204" t="s">
-        <v>118</v>
-      </c>
-      <c r="D204" t="s">
-        <v>152</v>
-      </c>
-      <c r="E204" t="s">
-        <v>10</v>
-      </c>
-      <c r="F204" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>18330051920188</v>
-      </c>
-      <c r="B205" t="s">
-        <v>94</v>
-      </c>
-      <c r="C205" t="s">
-        <v>118</v>
-      </c>
-      <c r="D205" t="s">
-        <v>152</v>
-      </c>
-      <c r="E205" t="s">
-        <v>9</v>
-      </c>
-      <c r="F205" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>19330051920398</v>
-      </c>
-      <c r="B206" t="s">
-        <v>95</v>
-      </c>
-      <c r="C206" t="s">
-        <v>85</v>
-      </c>
-      <c r="D206" t="s">
-        <v>153</v>
-      </c>
-      <c r="E206" t="s">
-        <v>8</v>
-      </c>
-      <c r="F206" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>19330051920398</v>
-      </c>
-      <c r="B207" t="s">
-        <v>95</v>
-      </c>
-      <c r="C207" t="s">
-        <v>85</v>
-      </c>
-      <c r="D207" t="s">
-        <v>153</v>
-      </c>
-      <c r="E207" t="s">
-        <v>5</v>
-      </c>
-      <c r="F207" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>19330051920398</v>
-      </c>
-      <c r="B208" t="s">
-        <v>95</v>
-      </c>
-      <c r="C208" t="s">
-        <v>85</v>
-      </c>
-      <c r="D208" t="s">
-        <v>153</v>
-      </c>
-      <c r="E208" t="s">
-        <v>6</v>
-      </c>
-      <c r="F208" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>19330051920398</v>
-      </c>
-      <c r="B209" t="s">
-        <v>95</v>
-      </c>
-      <c r="C209" t="s">
-        <v>85</v>
-      </c>
-      <c r="D209" t="s">
-        <v>153</v>
-      </c>
-      <c r="E209" t="s">
-        <v>7</v>
-      </c>
-      <c r="F209" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>19330051920398</v>
-      </c>
-      <c r="B210" t="s">
-        <v>95</v>
-      </c>
-      <c r="C210" t="s">
-        <v>85</v>
-      </c>
-      <c r="D210" t="s">
-        <v>153</v>
-      </c>
-      <c r="E210" t="s">
-        <v>10</v>
-      </c>
-      <c r="F210" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>19330051920398</v>
-      </c>
-      <c r="B211" t="s">
-        <v>95</v>
-      </c>
-      <c r="C211" t="s">
-        <v>85</v>
-      </c>
-      <c r="D211" t="s">
-        <v>153</v>
-      </c>
-      <c r="E211" t="s">
-        <v>9</v>
-      </c>
-      <c r="F211" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212">
-        <v>19330051920399</v>
-      </c>
-      <c r="B212" t="s">
-        <v>96</v>
-      </c>
-      <c r="C212" t="s">
-        <v>119</v>
-      </c>
-      <c r="D212" t="s">
-        <v>154</v>
-      </c>
-      <c r="E212" t="s">
-        <v>8</v>
-      </c>
-      <c r="F212" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213">
-        <v>19330051920399</v>
-      </c>
-      <c r="B213" t="s">
-        <v>96</v>
-      </c>
-      <c r="C213" t="s">
-        <v>119</v>
-      </c>
-      <c r="D213" t="s">
-        <v>154</v>
-      </c>
-      <c r="E213" t="s">
-        <v>5</v>
-      </c>
-      <c r="F213" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214">
-        <v>19330051920399</v>
-      </c>
-      <c r="B214" t="s">
-        <v>96</v>
-      </c>
-      <c r="C214" t="s">
-        <v>119</v>
-      </c>
-      <c r="D214" t="s">
-        <v>154</v>
-      </c>
-      <c r="E214" t="s">
-        <v>6</v>
-      </c>
-      <c r="F214" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215">
-        <v>19330051920399</v>
-      </c>
-      <c r="B215" t="s">
-        <v>96</v>
-      </c>
-      <c r="C215" t="s">
-        <v>119</v>
-      </c>
-      <c r="D215" t="s">
-        <v>154</v>
-      </c>
-      <c r="E215" t="s">
-        <v>7</v>
-      </c>
-      <c r="F215" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216">
-        <v>19330051920399</v>
-      </c>
-      <c r="B216" t="s">
-        <v>96</v>
-      </c>
-      <c r="C216" t="s">
-        <v>119</v>
-      </c>
-      <c r="D216" t="s">
-        <v>154</v>
-      </c>
-      <c r="E216" t="s">
-        <v>10</v>
-      </c>
-      <c r="F216" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217">
-        <v>19330051920399</v>
-      </c>
-      <c r="B217" t="s">
-        <v>96</v>
-      </c>
-      <c r="C217" t="s">
-        <v>119</v>
-      </c>
-      <c r="D217" t="s">
-        <v>154</v>
-      </c>
-      <c r="E217" t="s">
-        <v>9</v>
-      </c>
-      <c r="F217" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -8379,16 +5062,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920359</v>
+        <v>19330051920386</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -8396,16 +5079,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920358</v>
+        <v>19330051920419</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -8413,16 +5096,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920360</v>
+        <v>19330051920399</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -8430,580 +5113,580 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920456</v>
+        <v>19330051920393</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920362</v>
+        <v>19330051920360</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920426</v>
+        <v>19330051920367</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920366</v>
+        <v>19330051920383</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920365</v>
+        <v>19330051920435</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920368</v>
+        <v>19330051920358</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920367</v>
+        <v>19330051920436</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920435</v>
+        <v>18330051920188</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920371</v>
+        <v>19330051920426</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920097</v>
+        <v>19330051920366</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920372</v>
+        <v>19330051920375</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920373</v>
+        <v>19330051920377</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920375</v>
+        <v>18330051920108</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920374</v>
+        <v>19330051920369</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920376</v>
+        <v>19330051920359</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920377</v>
+        <v>19330051920456</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920378</v>
+        <v>19330051920362</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920381</v>
+        <v>19330051920365</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920382</v>
+        <v>19330051920368</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920383</v>
+        <v>19330051920371</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920386</v>
+        <v>18330051920097</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920419</v>
+        <v>19330051920372</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920389</v>
+        <v>19330051920373</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
         <v>143</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920436</v>
+        <v>19330051920374</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920391</v>
+        <v>19330051920376</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920393</v>
+        <v>19330051920378</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920394</v>
+        <v>19330051920381</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920434</v>
+        <v>19330051920382</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920396</v>
+        <v>19330051920389</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920369</v>
+        <v>19330051920391</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920398</v>
+        <v>19330051920394</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920399</v>
+        <v>19330051920434</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>18330051920108</v>
+        <v>19330051920396</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>18330051920188</v>
+        <v>19330051920398</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9013,7 +5696,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9048,22 +5731,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920456</v>
+        <v>19330051920358</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -9071,19 +5754,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920456</v>
+        <v>19330051920358</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -9094,22 +5777,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920362</v>
+        <v>19330051920377</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -9117,65 +5800,65 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920362</v>
+        <v>19330051920377</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920365</v>
+        <v>18330051920108</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920365</v>
+        <v>18330051920108</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -9186,22 +5869,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920368</v>
+        <v>19330051920426</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -9209,45 +5892,45 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920368</v>
+        <v>18330051920097</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920097</v>
+        <v>19330051920375</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -9255,22 +5938,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920097</v>
+        <v>19330051920369</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -9278,600 +5961,25 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920372</v>
+        <v>19330051920398</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920372</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920373</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920373</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920374</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920374</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920378</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920378</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920381</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920381</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19330051920382</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>19330051920382</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>18330051920108</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>18330051920108</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>19330051920391</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>19330051920391</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>19330051920394</v>
-      </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>19330051920394</v>
-      </c>
-      <c r="B29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>19330051920434</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>19330051920434</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>19330051920396</v>
-      </c>
-      <c r="B32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>19330051920396</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>19330051920359</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>19330051920371</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>19330051920376</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>19330051920389</v>
-      </c>
-      <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/5ARHV - Estadisticos 20211.xlsx
+++ b/grupos/5ARHV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="155">
   <si>
     <t>Materia</t>
   </si>
@@ -224,262 +224,262 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>BRETON</t>
+  </si>
+  <si>
+    <t>DEL CARMEN</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>ZARATE</t>
+  </si>
+  <si>
+    <t>VICENTE</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>AQUINO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>VERGEL</t>
+  </si>
+  <si>
+    <t>AMYRA NAHOMY</t>
+  </si>
+  <si>
+    <t>NAOMI</t>
+  </si>
+  <si>
+    <t>ZURI SADAY</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>LUIS HUGO</t>
+  </si>
+  <si>
+    <t>DIANA LAURA</t>
+  </si>
+  <si>
+    <t>ASTRID</t>
+  </si>
+  <si>
+    <t>ITZEL ISABEL</t>
+  </si>
+  <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>PAULINA</t>
+  </si>
+  <si>
     <t>APALE</t>
   </si>
   <si>
-    <t>BRETON</t>
-  </si>
-  <si>
-    <t>DEL CARMEN</t>
+    <t>BRISEÑO</t>
+  </si>
+  <si>
+    <t>CALIHUA</t>
   </si>
   <si>
     <t>CRISTOBAL</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>DONJUAN</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>QUIAHUA</t>
   </si>
   <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
   </si>
   <si>
     <t>VALDES</t>
   </si>
   <si>
-    <t>ZARATE</t>
+    <t>VERA</t>
   </si>
   <si>
     <t>COLOHUA</t>
   </si>
   <si>
-    <t>VICENTE</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
+    <t>SUSUNAGA</t>
   </si>
   <si>
     <t>BRUNO</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>AQUINO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
+    <t>MELCHOR</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>AGUILA</t>
+  </si>
+  <si>
+    <t>CORTES</t>
   </si>
   <si>
     <t>CORDOBA</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
+    <t>TZITZIHUA</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>VOTTE</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
   </si>
   <si>
     <t>MARIN</t>
   </si>
   <si>
-    <t>VERGEL</t>
+    <t>AURORA</t>
   </si>
   <si>
     <t>EVELYN AISHA</t>
   </si>
   <si>
-    <t>AMYRA NAHOMY</t>
-  </si>
-  <si>
-    <t>NAOMI</t>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>JOEL</t>
   </si>
   <si>
     <t>DANIELA</t>
   </si>
   <si>
-    <t>ZURI SADAY</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>MARIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>PERLA</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>LUIS HUGO</t>
-  </si>
-  <si>
-    <t>DIANA LAURA</t>
+    <t>OFELIA</t>
+  </si>
+  <si>
+    <t>RAUL ANTONIO</t>
+  </si>
+  <si>
+    <t>HILARIO</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL</t>
+  </si>
+  <si>
+    <t>DARIANA MONSERRAT</t>
+  </si>
+  <si>
+    <t>MARIAM ABRIL</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
+  </si>
+  <si>
+    <t>GUADALUPE</t>
   </si>
   <si>
     <t>FRANCISCO JAVIER</t>
   </si>
   <si>
-    <t>ASTRID</t>
-  </si>
-  <si>
-    <t>ITZEL ISABEL</t>
-  </si>
-  <si>
-    <t>JENNIFER</t>
+    <t>NOE</t>
+  </si>
+  <si>
+    <t>MERIELING YAMILETH</t>
+  </si>
+  <si>
+    <t>SAIRA YAMILET</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
   </si>
   <si>
     <t>BRENDA ELENA</t>
-  </si>
-  <si>
-    <t>PAULINA</t>
-  </si>
-  <si>
-    <t>BRISEÑO</t>
-  </si>
-  <si>
-    <t>CALIHUA</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>DONJUAN</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>QUIAHUA</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>SUSUNAGA</t>
-  </si>
-  <si>
-    <t>MELCHOR</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>AGUILA</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>TZITZIHUA</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>VOTTE</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>AURORA</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
-    <t>JOEL</t>
-  </si>
-  <si>
-    <t>OFELIA</t>
-  </si>
-  <si>
-    <t>RAUL ANTONIO</t>
-  </si>
-  <si>
-    <t>HILARIO</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL</t>
-  </si>
-  <si>
-    <t>DARIANA MONSERRAT</t>
-  </si>
-  <si>
-    <t>MARIAM ABRIL</t>
-  </si>
-  <si>
-    <t>LUCERO</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>NOE</t>
-  </si>
-  <si>
-    <t>MERIELING YAMILETH</t>
-  </si>
-  <si>
-    <t>SAIRA YAMILET</t>
-  </si>
-  <si>
-    <t>ELIZABETH</t>
   </si>
   <si>
     <t>VALERIA</t>
@@ -977,7 +977,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -986,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -1031,7 +1031,7 @@
         <v>6</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W4">
         <v>8</v>
@@ -1040,7 +1040,7 @@
         <v>7</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1140,7 +1140,7 @@
         <v>-1</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1194,7 +1194,7 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -1371,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1416,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1425,7 +1425,7 @@
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1525,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1579,7 +1579,7 @@
         <v>5</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1593,7 +1593,7 @@
         <v>-1</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>-1</v>
@@ -1602,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -1647,7 +1647,7 @@
         <v>-1</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1656,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2748,7 +2748,7 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>-1</v>
@@ -2757,7 +2757,7 @@
         <v>5</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -2802,7 +2802,7 @@
         <v>6</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2811,7 +2811,7 @@
         <v>5</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2834,7 +2834,7 @@
         <v>-1</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2888,7 +2888,7 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2902,7 +2902,7 @@
         <v>-1</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <v>-1</v>
@@ -2911,7 +2911,7 @@
         <v>-1</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2956,7 +2956,7 @@
         <v>-1</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -2965,7 +2965,7 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -3056,7 +3056,7 @@
         <v>5</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -3083,7 +3083,7 @@
         <v>5</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3106,7 +3106,7 @@
         <v>5</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <v>-1</v>
@@ -3160,7 +3160,7 @@
         <v>5</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3251,7 +3251,7 @@
         <v>-1</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>-1</v>
@@ -3260,7 +3260,7 @@
         <v>5</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H34">
         <v>-1</v>
@@ -3305,7 +3305,7 @@
         <v>-1</v>
       </c>
       <c r="V34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3314,7 +3314,7 @@
         <v>5</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3553,13 +3553,13 @@
         <v>46</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F38">
         <v>5</v>
       </c>
       <c r="G38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J38">
         <v>-1</v>
@@ -3580,13 +3580,13 @@
         <v>-1</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X38">
         <v>5</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -3686,7 +3686,7 @@
         <v>-1</v>
       </c>
       <c r="G40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <v>-1</v>
@@ -3740,7 +3740,7 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3840,25 +3840,25 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>67.56999999999999</v>
+      </c>
+      <c r="G3">
+        <v>32.43</v>
+      </c>
+      <c r="H3">
+        <v>7.7</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>64.86</v>
-      </c>
-      <c r="G3">
+      <c r="J3">
         <v>0</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>13</v>
-      </c>
-      <c r="J3">
-        <v>35.14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3936,25 +3936,25 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>72.22</v>
+        <v>75</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="H6">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>27.78</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3996,7 +3996,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4028,42 +4028,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920358</v>
+        <v>19330051920360</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920358</v>
+        <v>19330051920360</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4071,33 +4071,33 @@
         <v>19330051920360</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920360</v>
+        <v>19330051920426</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -4108,356 +4108,356 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920360</v>
+        <v>19330051920367</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920360</v>
+        <v>19330051920367</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920426</v>
+        <v>19330051920435</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920366</v>
+        <v>19330051920375</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920367</v>
+        <v>19330051920377</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920367</v>
+        <v>19330051920383</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920367</v>
+        <v>19330051920383</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920367</v>
+        <v>19330051920386</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920435</v>
+        <v>19330051920386</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920435</v>
+        <v>19330051920386</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920435</v>
+        <v>19330051920386</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920375</v>
+        <v>19330051920386</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920377</v>
+        <v>19330051920419</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920383</v>
+        <v>19330051920419</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920383</v>
+        <v>19330051920419</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920383</v>
+        <v>19330051920419</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920383</v>
+        <v>19330051920436</v>
       </c>
       <c r="B22" t="s">
         <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920386</v>
+        <v>19330051920393</v>
       </c>
       <c r="B23" t="s">
         <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -4468,16 +4468,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920386</v>
+        <v>19330051920393</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
@@ -4488,16 +4488,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920386</v>
+        <v>19330051920393</v>
       </c>
       <c r="B25" t="s">
         <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -4508,521 +4508,121 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920386</v>
+        <v>19330051920369</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920386</v>
+        <v>19330051920399</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920386</v>
+        <v>19330051920399</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920419</v>
+        <v>19330051920399</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920419</v>
+        <v>19330051920399</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920419</v>
+        <v>19330051920399</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>19330051920419</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>19330051920419</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>19330051920419</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>18330051920108</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>19330051920436</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>19330051920436</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>19330051920393</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>19330051920393</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>19330051920393</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>19330051920393</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>19330051920393</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>19330051920369</v>
-      </c>
-      <c r="B43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" t="s">
-        <v>114</v>
-      </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>18330051920188</v>
-      </c>
-      <c r="B44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>18330051920188</v>
-      </c>
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>19330051920399</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>19330051920399</v>
-      </c>
-      <c r="B47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>19330051920399</v>
-      </c>
-      <c r="B48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" t="s">
-        <v>116</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>19330051920399</v>
-      </c>
-      <c r="B49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>19330051920399</v>
-      </c>
-      <c r="B50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>19330051920399</v>
-      </c>
-      <c r="B51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5065,84 +4665,84 @@
         <v>19330051920386</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920419</v>
+        <v>19330051920399</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920399</v>
+        <v>19330051920419</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920393</v>
+        <v>19330051920360</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920360</v>
+        <v>19330051920393</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5150,16 +4750,16 @@
         <v>19330051920367</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5167,98 +4767,98 @@
         <v>19330051920383</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920435</v>
+        <v>19330051920426</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920358</v>
+        <v>19330051920435</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920436</v>
+        <v>19330051920375</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920188</v>
+        <v>19330051920377</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920426</v>
+        <v>19330051920436</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -5266,13 +4866,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920366</v>
+        <v>19330051920369</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
         <v>103</v>
@@ -5283,81 +4883,81 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920375</v>
+        <v>19330051920359</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920377</v>
+        <v>19330051920358</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920108</v>
+        <v>19330051920456</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920369</v>
+        <v>19330051920362</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920359</v>
+        <v>19330051920366</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
         <v>137</v>
@@ -5368,16 +4968,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920456</v>
+        <v>19330051920365</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5385,16 +4985,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920362</v>
+        <v>19330051920368</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5402,16 +5002,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920365</v>
+        <v>19330051920371</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -5419,13 +5019,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920368</v>
+        <v>18330051920097</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
         <v>140</v>
@@ -5436,16 +5036,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920371</v>
+        <v>19330051920372</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5453,16 +5053,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920097</v>
+        <v>19330051920373</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5470,16 +5070,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920372</v>
+        <v>19330051920374</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5487,13 +5087,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920373</v>
+        <v>19330051920376</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
         <v>143</v>
@@ -5504,13 +5104,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920374</v>
+        <v>19330051920378</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
         <v>144</v>
@@ -5521,13 +5121,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920376</v>
+        <v>19330051920381</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
         <v>145</v>
@@ -5538,13 +5138,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920378</v>
+        <v>19330051920382</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>146</v>
@@ -5555,13 +5155,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920381</v>
+        <v>19330051920389</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
         <v>147</v>
@@ -5572,13 +5172,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920382</v>
+        <v>18330051920108</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
         <v>148</v>
@@ -5589,13 +5189,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920389</v>
+        <v>19330051920391</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
         <v>149</v>
@@ -5606,13 +5206,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920391</v>
+        <v>19330051920394</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
         <v>150</v>
@@ -5623,13 +5223,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920394</v>
+        <v>19330051920434</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
         <v>151</v>
@@ -5640,13 +5240,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920434</v>
+        <v>19330051920396</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
         <v>152</v>
@@ -5657,13 +5257,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920396</v>
+        <v>18330051920188</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
         <v>153</v>
@@ -5677,10 +5277,10 @@
         <v>19330051920398</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
         <v>154</v>
@@ -5696,7 +5296,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5734,13 +5334,13 @@
         <v>19330051920358</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -5749,7 +5349,7 @@
         <v>62</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5757,13 +5357,13 @@
         <v>19330051920358</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -5772,7 +5372,7 @@
         <v>59</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5780,13 +5380,13 @@
         <v>19330051920377</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -5803,13 +5403,13 @@
         <v>19330051920377</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -5823,62 +5423,62 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920108</v>
+        <v>19330051920426</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920108</v>
+        <v>18330051920097</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920426</v>
+        <v>19330051920375</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -5892,16 +5492,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920097</v>
+        <v>18330051920108</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -5915,16 +5515,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920375</v>
+        <v>19330051920369</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -5938,47 +5538,24 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920369</v>
+        <v>19330051920398</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920398</v>
-      </c>
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12">
         <v>5</v>
       </c>
     </row>
